--- a/PTP combined/Standard_Deviation and Max.xlsx
+++ b/PTP combined/Standard_Deviation and Max.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,6 +452,56 @@
           <t>A1-A6</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>A2-A3</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>A2-A4</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>A2-A5</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>A2-A6</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>A3-A4</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>A3-A5</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>A3-A6</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>A4-A5</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>A4-A6</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>A4-A6</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -474,6 +524,36 @@
       <c r="F3" t="n">
         <v>0.125672340327214</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.04377748576935908</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.1048904376256853</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.04465451977783355</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.1133286152801758</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.08199452009410384</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.01605221504347328</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.08615393724887715</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.04363900915317774</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.03324744301279196</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.1096218056714369</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -495,6 +575,88 @@
       </c>
       <c r="F4" t="n">
         <v>0.5005513805880686</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.2302690318770986</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.4852792543902354</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2183775035488023</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.4900937218377863</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.4454712637141095</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.07836700488541404</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.4509852702460233</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.2414013973105197</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.1267255928289681</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.498967099440053</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.01282128862737119</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.01554124594660452</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.05523844534376545</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.02773185877153201</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.06310082761723457</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.01942443474961239</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.05593333208081411</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0240574250816833</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.055238142338576</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.03125602555220881</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.009674720142514359</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.03278094238855744</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.01678073127719897</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.02183185037422592</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.05187175571702977</v>
       </c>
     </row>
   </sheetData>
